--- a/Exp1/exp1b.xlsx
+++ b/Exp1/exp1b.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hatim\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081E0A21-03F4-478C-A349-91A96E2AAD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123D3E03-A1C5-4438-B118-FEB82C1CD03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Chart1" sheetId="2" r:id="rId2"/>
+    <sheet name="Chart2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -26,7 +26,7 @@
     <t>Block Size</t>
   </si>
   <si>
-    <t>Selection sort</t>
+    <t>Selection Sort</t>
   </si>
   <si>
     <t>Insertion Sort</t>
@@ -50,11 +50,10 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -140,7 +139,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -165,69 +164,35 @@
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="757575"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-IN"/>
+              <a:rPr lang="en-IN" b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
               <a:t>Time Complexity Graph</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -238,14 +203,23 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Selection Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln cmpd="sng">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="4285F4"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -6271,21 +6245,30 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A869-46CD-970B-67B7FA4452F1}"/>
+              <c16:uniqueId val="{00000000-4F7A-4F1D-BCDB-9DE53453726F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insertion Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln cmpd="sng">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="EA4335"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -12311,7 +12294,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A869-46CD-970B-67B7FA4452F1}"/>
+              <c16:uniqueId val="{00000001-4F7A-4F1D-BCDB-9DE53453726F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12324,11 +12307,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1369255483"/>
-        <c:axId val="1539421687"/>
+        <c:axId val="178008378"/>
+        <c:axId val="1706038992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1369255483"/>
+        <c:axId val="178008378"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12337,96 +12320,51 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-IN"/>
-                  <a:t>Block size</a:t>
+                  <a:rPr lang="en-IN" b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Block Size</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1539421687"/>
+        <c:crossAx val="1706038992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12434,7 +12372,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1539421687"/>
+        <c:axId val="1706038992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12442,141 +12380,92 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
+                <a:srgbClr val="B7B7B7"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-IN"/>
-                  <a:t>Time (s)</a:t>
+                  <a:rPr lang="en-IN" b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Time (secs)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
+          <a:ln/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1369255483"/>
+        <c:crossAx val="178008378"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:srgbClr val="1A1A1A"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -12587,595 +12476,14 @@
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="1"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13418,17 +12726,18 @@
   </sheetPr>
   <dimension ref="A1:C1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -13703,7 +13012,7 @@
         <v>3.5729999999999998E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>2500</v>
       </c>
